--- a/sprints/30_04-14_05.xlsx
+++ b/sprints/30_04-14_05.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>PLANEJAMENTO 11 abr - 20 abr</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+  <si>
+    <t>PLANEJAMENTO 30 abr - 14 mai</t>
   </si>
   <si>
     <t>Responsável</t>
@@ -22,13 +22,20 @@
     <t>Tarefa</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>Laís Fiori</t>
   </si>
   <si>
     <t>Backend das telas Tópicos e Atividades</t>
   </si>
   <si>
-    <t>Entregas APS</t>
+    <t>Entregas AP2
+ + APS + Figma</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
   </si>
   <si>
     <t>Luma Ramos</t>
@@ -38,9 +45,6 @@
   </si>
   <si>
     <t>Segurança do sistema (jwt)</t>
-  </si>
-  <si>
-    <t>Entregas AP2</t>
   </si>
   <si>
     <t>Pedro Pimenta</t>
@@ -53,17 +57,17 @@
 Conteúdo</t>
   </si>
   <si>
-    <t>Entregas GN2</t>
-  </si>
-  <si>
     <t>Ana Luiza Aguiar</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -82,8 +86,12 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +110,12 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border/>
@@ -112,11 +126,17 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <right style="thin">
@@ -125,16 +145,9 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -151,6 +164,11 @@
       </bottom>
     </border>
     <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -171,12 +189,20 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -188,20 +214,32 @@
     <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -428,7 +466,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
@@ -437,72 +476,91 @@
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="10" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9" t="s">
         <v>13</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/sprints/30_04-14_05.xlsx
+++ b/sprints/30_04-14_05.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laisw\OneDrive\Documentos\Laís\ProjetoTCC\INI3A-EQ2\sprints\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6259A0C-AE54-48C5-9EC6-A8F8EF756284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
-    <t>PLANEJAMENTO 30 abr - 14 mai</t>
-  </si>
-  <si>
     <t>Responsável</t>
   </si>
   <si>
@@ -26,9 +32,6 @@
   </si>
   <si>
     <t>Laís Fiori</t>
-  </si>
-  <si>
-    <t>Backend das telas Tópicos e Atividades</t>
   </si>
   <si>
     <t>Entregas AP2
@@ -53,42 +56,67 @@
     <t>Anna Beatriz Valderrama</t>
   </si>
   <si>
-    <t>Frontend das telas Tópicos, Atividades e 
-Conteúdo</t>
-  </si>
-  <si>
     <t>Ana Luiza Aguiar</t>
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>Backend das telas Tópicos</t>
+  </si>
+  <si>
+    <t>Frontend das telas Matéria e Tópicos</t>
+  </si>
+  <si>
+    <t>PLANEJAMENTO 30 abr - 14 maio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -96,7 +124,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -118,27 +146,39 @@
     </fill>
   </fills>
   <borders count="9">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -148,6 +188,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -162,11 +203,16 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -178,6 +224,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -186,9 +234,11 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -197,63 +247,72 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -443,112 +502,126 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.63"/>
-    <col customWidth="1" min="2" max="2" width="31.25"/>
-    <col customWidth="1" min="3" max="3" width="12.5"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -562,6 +635,6 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/sprints/30_04-14_05.xlsx
+++ b/sprints/30_04-14_05.xlsx
@@ -1,130 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laisw\OneDrive\Documentos\Laís\ProjetoTCC\INI3A-EQ2\sprints\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6259A0C-AE54-48C5-9EC6-A8F8EF756284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Página1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+  <si>
+    <t>PLANEJAMENTO 11 abr - 20 abr</t>
+  </si>
   <si>
     <t>Responsável</t>
   </si>
   <si>
-    <t>Tarefa</t>
+    <t>Programação</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
+    <t>AP2</t>
+  </si>
+  <si>
+    <t>APS</t>
+  </si>
+  <si>
+    <t>GN</t>
+  </si>
+  <si>
     <t>Laís Fiori</t>
   </si>
   <si>
-    <t>Entregas AP2
- + APS + Figma</t>
+    <t>Integração frontend e backend das telas de login e cadastro</t>
   </si>
   <si>
     <t>Finalizado</t>
   </si>
   <si>
+    <t>Figma para apresentação de identidade visual - Tela matérias</t>
+  </si>
+  <si>
+    <t>Nenhuma atividade relacionada ao tcc</t>
+  </si>
+  <si>
     <t>Luma Ramos</t>
   </si>
   <si>
+    <t>Elaboração dos slides de identidade visual</t>
+  </si>
+  <si>
     <t>Luciano Luz</t>
   </si>
   <si>
-    <t>Segurança do sistema (jwt)</t>
+    <t>Segurança do sistema / Autenticação (jwt)</t>
+  </si>
+  <si>
+    <t>Figma para apresentação de identidade visual - Tela flashcards</t>
   </si>
   <si>
     <t>Pedro Pimenta</t>
   </si>
   <si>
+    <t>Figma para apresentação de identidade visual- Tela agenda</t>
+  </si>
+  <si>
     <t>Anna Beatriz Valderrama</t>
   </si>
   <si>
+    <t>Frontend das telas inicial de flashcards, matérias e tópicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criação do logotipo e do símbolo </t>
+  </si>
+  <si>
     <t>Ana Luiza Aguiar</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>Backend das telas Tópicos</t>
-  </si>
-  <si>
-    <t>Frontend das telas Matéria e Tópicos</t>
-  </si>
-  <si>
-    <t>PLANEJAMENTO 30 abr - 14 maio</t>
+    <t>Ficha técnica; Figma para apresentação de identidade visual- Tela inicial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="5">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
+    <font/>
     <font>
-      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -144,51 +137,58 @@
         <bgColor rgb="FFD0E0E3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor rgb="FFE6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -200,19 +200,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -221,11 +208,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -234,85 +219,72 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -502,139 +474,205 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="25.63"/>
+    <col customWidth="1" min="2" max="2" width="37.0"/>
+    <col customWidth="1" min="3" max="3" width="12.5"/>
+    <col customWidth="1" min="4" max="4" width="34.63"/>
+    <col customWidth="1" min="6" max="6" width="16.63"/>
+    <col customWidth="1" min="8" max="8" width="16.75"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="6"/>
-    </row>
-    <row r="17" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" ht="33.75" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="F3:F8"/>
+    <mergeCell ref="G3:G8"/>
+    <mergeCell ref="H3:H8"/>
+    <mergeCell ref="I3:I8"/>
   </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/sprints/30_04-14_05.xlsx
+++ b/sprints/30_04-14_05.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
-    <t>PLANEJAMENTO 11 abr - 20 abr</t>
+    <t>PLANEJAMENTO 30 abr - 14 maio</t>
   </si>
   <si>
     <t>Responsável</t>
@@ -229,7 +229,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
